--- a/Peserta_Praktikum.xlsx
+++ b/Peserta_Praktikum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boge\Documents\GitHub\samboge.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C92A870-916C-4B71-BE3F-9A8404C110A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D9D5E-2E03-4564-BC41-819918A474DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBL19" sheetId="1" r:id="rId1"/>
@@ -691,9 +691,6 @@
     <t>kelompok</t>
   </si>
   <si>
-    <t>SIGIT ROLAS</t>
-  </si>
-  <si>
     <t>Dhikyak Falakhul Akmal</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>ASISTEN PRAKTIKUM</t>
+  </si>
+  <si>
+    <t>SIGIT ROLIS</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2921,7 +2921,7 @@
         <v>218</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -3030,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -3122,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -3398,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -3469,13 +3469,13 @@
     <sortCondition ref="C2:C36"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="D26:G31"/>
+    <mergeCell ref="D32:G36"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G7"/>
     <mergeCell ref="D8:G13"/>
     <mergeCell ref="D14:G19"/>
     <mergeCell ref="D20:G25"/>
-    <mergeCell ref="D26:G31"/>
-    <mergeCell ref="D32:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3485,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE9CBC-E754-4446-BB06-085F26701A18}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3507,13 +3507,13 @@
         <v>221</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="25">
         <v>170431100045</v>
       </c>
@@ -3524,13 +3524,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="25">
         <v>180431100014</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="25">
         <v>180431100028</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="25">
         <v>180431100044</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="25">
         <v>180431100063</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="25">
         <v>180431100086</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -3708,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3800,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -3984,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -4062,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C8574-6F63-4E5E-BE85-90A9991D66EE}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4084,13 +4084,13 @@
         <v>221</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="15">
         <v>150431100072</v>
       </c>
@@ -4101,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="15">
         <v>180431100016</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="15">
         <v>180431100042</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="15">
         <v>180431100054</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="15">
         <v>180431100072</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="15">
         <v>180431100096</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -4377,7 +4377,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -4561,7 +4561,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>

--- a/Peserta_Praktikum.xlsx
+++ b/Peserta_Praktikum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boge\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A280962-DB78-467B-8E4B-00C498B540E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EEFD3-6A56-4F1E-A9E6-F1D8ACDC6307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="228">
   <si>
     <t>nim</t>
   </si>
@@ -458,9 +458,6 @@
     <t>20191TKE308B180431100005</t>
   </si>
   <si>
-    <t>hbibul abror</t>
-  </si>
-  <si>
     <t>20191TKE308B170431100045</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>KELOMPOK</t>
-  </si>
-  <si>
     <t>NIM</t>
   </si>
   <si>
@@ -699,6 +693,27 @@
   </si>
   <si>
     <t>Lu'lu'ul Maknunah</t>
+  </si>
+  <si>
+    <t>Agusti Firmansyah P.L</t>
+  </si>
+  <si>
+    <t>TRIAC</t>
+  </si>
+  <si>
+    <t>IGBT</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>MEGGER</t>
+  </si>
+  <si>
+    <t>GALVANO</t>
   </si>
 </sst>
 </file>
@@ -714,13 +729,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -751,6 +759,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -854,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -862,8 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -872,10 +884,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -886,16 +898,27 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1222,7 +1245,7 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
@@ -1241,23 +1264,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="36">
         <v>150431100072</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="35" t="str">
         <f>PROPER(F2)</f>
         <v>Septian Sukma Dewantara</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="35" t="s">
         <v>74</v>
       </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1271,13 +1295,13 @@
         <v>Feri Danafia Syahputra</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1295,13 +1319,13 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1313,13 +1337,13 @@
         <v>Wetina Alya</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1340,10 +1364,10 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>222</v>
+        <v>205</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1361,7 +1385,7 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1382,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1403,7 +1427,7 @@
         <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
         <v>140</v>
@@ -1418,16 +1442,16 @@
         <v>Khoirul Marjan</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1439,16 +1463,16 @@
         <v>Hasanuddin</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1466,7 +1490,7 @@
         <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>138</v>
@@ -1487,7 +1511,7 @@
         <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>136</v>
@@ -1508,7 +1532,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
@@ -1529,7 +1553,7 @@
         <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
         <v>134</v>
@@ -1544,16 +1568,16 @@
         <v>Faidatul Hasanah</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1571,7 +1595,7 @@
         <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
         <v>132</v>
@@ -1592,7 +1616,7 @@
         <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
         <v>130</v>
@@ -1607,16 +1631,16 @@
         <v>Resa Wahyu Aditya</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1634,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -1649,16 +1673,16 @@
         <v>Emelia Qurrotul Aini</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1676,7 +1700,7 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -1697,7 +1721,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
         <v>126</v>
@@ -1712,16 +1736,16 @@
         <v>Mohammad Riqi Darmawan</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1739,7 +1763,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>124</v>
@@ -1754,16 +1778,16 @@
         <v>Bayu Mulya Ade W.</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1781,7 +1805,7 @@
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
         <v>122</v>
@@ -1802,7 +1826,7 @@
         <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
         <v>120</v>
@@ -1823,7 +1847,7 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -1838,16 +1862,16 @@
         <v>Moh. Iqbal Ramadlan. A</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1865,7 +1889,7 @@
         <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
         <v>118</v>
@@ -1886,7 +1910,7 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
         <v>116</v>
@@ -1907,7 +1931,7 @@
         <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
         <v>114</v>
@@ -1928,7 +1952,7 @@
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
         <v>60</v>
@@ -1943,16 +1967,16 @@
         <v>Willy Dwi Sandy Firmansyah</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1970,7 +1994,7 @@
         <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
         <v>112</v>
@@ -1991,7 +2015,7 @@
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -2012,7 +2036,7 @@
         <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
         <v>110</v>
@@ -2033,7 +2057,7 @@
         <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
@@ -2054,7 +2078,7 @@
         <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
         <v>108</v>
@@ -2075,7 +2099,7 @@
         <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -2096,7 +2120,7 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
         <v>52</v>
@@ -2117,7 +2141,7 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
         <v>50</v>
@@ -2138,7 +2162,7 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
         <v>106</v>
@@ -2153,16 +2177,16 @@
         <v>Felix Konstantin Niel Basori</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2180,7 +2204,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
         <v>48</v>
@@ -2201,7 +2225,7 @@
         <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" t="s">
         <v>104</v>
@@ -2216,16 +2240,16 @@
         <v>Ella Rosa Mega Damayani</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2243,7 +2267,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
@@ -2258,16 +2282,16 @@
         <v>Bagas Setiawan</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2285,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -2300,16 +2324,16 @@
         <v>Andaru Adhi Sampurno</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2327,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2348,7 +2372,7 @@
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -2369,7 +2393,7 @@
         <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
         <v>102</v>
@@ -2390,7 +2414,7 @@
         <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -2405,16 +2429,16 @@
         <v>Dany Maulana</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2432,7 +2456,7 @@
         <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
         <v>100</v>
@@ -2453,7 +2477,7 @@
         <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
         <v>98</v>
@@ -2474,7 +2498,7 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
         <v>96</v>
@@ -2495,7 +2519,7 @@
         <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
@@ -2516,7 +2540,7 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
@@ -2537,7 +2561,7 @@
         <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
         <v>94</v>
@@ -2558,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -2573,16 +2597,16 @@
         <v>Abd. Rofik</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2594,16 +2618,16 @@
         <v>Amin Rais</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2621,7 +2645,7 @@
         <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -2636,16 +2660,16 @@
         <v>Moh. Nurul Anwar</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2657,715 +2681,698 @@
         <v>Clarisna Evita</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>180431100071</v>
+        <v>180431100072</v>
       </c>
       <c r="B70" t="str">
         <f>PROPER(F70)</f>
-        <v>Clarisna Evita</v>
+        <v>Moch. Hidayatulloh</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>180431100072</v>
+        <v>180431100073</v>
       </c>
       <c r="B71" t="str">
         <f>PROPER(F71)</f>
-        <v>Moch. Hidayatulloh</v>
+        <v>Mokhamad Javan Wahtu Setyo</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>180431100073</v>
+        <v>180431100074</v>
       </c>
       <c r="B72" t="str">
         <f>PROPER(F72)</f>
-        <v>Mokhamad Javan Wahtu Setyo</v>
+        <v>M Faizal Al Ikbal</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>180431100074</v>
+        <v>180431100075</v>
       </c>
       <c r="B73" t="str">
         <f>PROPER(F73)</f>
-        <v>M Faizal Al Ikbal</v>
+        <v>Shofiyul Fuad</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>180431100075</v>
+        <v>180431100076</v>
       </c>
       <c r="B74" t="str">
         <f>PROPER(F74)</f>
-        <v>Shofiyul Fuad</v>
+        <v>M. Luthfi Arif Budiono</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>180431100076</v>
+        <v>180431100077</v>
       </c>
       <c r="B75" t="str">
         <f>PROPER(F75)</f>
-        <v>M. Luthfi Arif Budiono</v>
+        <v>Hariesandi Rizkiyan</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>180431100077</v>
+        <v>180431100081</v>
       </c>
       <c r="B76" t="str">
         <f>PROPER(F76)</f>
-        <v>Hariesandi Rizkiyan</v>
+        <v>R. Adam Yulianto Siliwangi</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>180431100081</v>
+        <v>180431100083</v>
       </c>
       <c r="B77" t="str">
         <f>PROPER(F77)</f>
-        <v>R. Adam Yulianto Siliwangi</v>
+        <v>Burhanuddin</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>180431100083</v>
+        <v>180431100084</v>
       </c>
       <c r="B78" t="str">
         <f>PROPER(F78)</f>
-        <v>Burhanuddin</v>
+        <v>Alrizqi Fauzan</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>180431100084</v>
+        <v>180431100085</v>
       </c>
       <c r="B79" t="str">
         <f>PROPER(F79)</f>
-        <v>Alrizqi Fauzan</v>
+        <v>Kemas Dwiky Ariyanto</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>180431100085</v>
+        <v>180431100086</v>
       </c>
       <c r="B80" t="str">
         <f>PROPER(F80)</f>
-        <v>Kemas Dwiky Ariyanto</v>
+        <v>Ahmad Lailil Qomariy</v>
       </c>
       <c r="C80" t="s">
         <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>180431100086</v>
+        <v>180431100087</v>
       </c>
       <c r="B81" t="str">
         <f>PROPER(F81)</f>
-        <v>Ahmad Lailil Qomariy</v>
+        <v>Mochammad Faiqur Rutab</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>180431100087</v>
+        <v>180431100088</v>
       </c>
       <c r="B82" t="str">
         <f>PROPER(F82)</f>
-        <v>Mochammad Faiqur Rutab</v>
+        <v>Raifanda Alfari</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>180431100088</v>
+        <v>180431100089</v>
       </c>
       <c r="B83" t="str">
         <f>PROPER(F83)</f>
-        <v>Raifanda Alfari</v>
+        <v>Shudaesy Daniel Islamie</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>180431100089</v>
+        <v>180431100090</v>
       </c>
       <c r="B84" t="str">
         <f>PROPER(F84)</f>
-        <v>Shudaesy Daniel Islamie</v>
+        <v>Cahya Salman Farisi</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>180431100090</v>
+        <v>180431100091</v>
       </c>
       <c r="B85" t="str">
         <f>PROPER(F85)</f>
-        <v>Cahya Salman Farisi</v>
+        <v>Suridah</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>180431100091</v>
+        <v>180431100092</v>
       </c>
       <c r="B86" t="str">
         <f>PROPER(F86)</f>
-        <v>Suridah</v>
+        <v>Hizqil Wildan</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>180431100092</v>
+        <v>180431100094</v>
       </c>
       <c r="B87" t="str">
         <f>PROPER(F87)</f>
-        <v>Hizqil Wildan</v>
+        <v>Johansyah Irnawan</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>180431100094</v>
+        <v>180431100096</v>
       </c>
       <c r="B88" t="str">
         <f>PROPER(F88)</f>
-        <v>Johansyah Irnawan</v>
+        <v>Alfian Sahril Rachmanto</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>180431100096</v>
+        <v>180431100097</v>
       </c>
       <c r="B89" t="str">
         <f>PROPER(F89)</f>
-        <v>Alfian Sahril Rachmanto</v>
+        <v>Muhammad Afif Alfian</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>180431100097</v>
+        <v>180431100098</v>
       </c>
       <c r="B90" t="str">
         <f>PROPER(F90)</f>
-        <v>Muhammad Afif Alfian</v>
+        <v>Arief Wahyuddin</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>180431100098</v>
+        <v>180431100099</v>
       </c>
       <c r="B91" t="str">
         <f>PROPER(F91)</f>
-        <v>Arief Wahyuddin</v>
+        <v>Sultoni Al Farizi</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>180431100099</v>
+        <v>180431100100</v>
       </c>
       <c r="B92" t="str">
         <f>PROPER(F92)</f>
-        <v>Sultoni Al Farizi</v>
+        <v>Imam Syafi'E</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>180431100100</v>
+        <v>180431100102</v>
       </c>
       <c r="B93" t="str">
         <f>PROPER(F93)</f>
-        <v>Imam Syafi'E</v>
+        <v>Philipus Tedy Lukmantoro</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>180431100102</v>
+        <v>180431100103</v>
       </c>
       <c r="B94" t="str">
         <f>PROPER(F94)</f>
-        <v>Philipus Tedy Lukmantoro</v>
+        <v>Gege Maulid Dewanata</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>180431100103</v>
+        <v>180431100104</v>
       </c>
       <c r="B95" t="str">
         <f>PROPER(F95)</f>
-        <v>Gege Maulid Dewanata</v>
+        <v>Muhammad Aminullah</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>180431100104</v>
+        <v>180431100105</v>
       </c>
       <c r="B96" t="str">
         <f>PROPER(F96)</f>
-        <v>Muhammad Aminullah</v>
+        <v>Ahmad Handika Nadyawan</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>180431100105</v>
+        <v>180431100106</v>
       </c>
       <c r="B97" t="str">
         <f>PROPER(F97)</f>
-        <v>Ahmad Handika Nadyawan</v>
+        <v>Salsabilah</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>180431100106</v>
+        <v>180431100107</v>
       </c>
       <c r="B98" t="str">
         <f>PROPER(F98)</f>
-        <v>Salsabilah</v>
+        <v>Muhammad Afifuzzaki Yoga Alif</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>180431100107</v>
+        <v>180431100108</v>
       </c>
       <c r="B99" t="str">
         <f>PROPER(F99)</f>
-        <v>Muhammad Afifuzzaki Yoga Alif</v>
+        <v>Maskur</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>180431100108</v>
+        <v>180431100109</v>
       </c>
       <c r="B100" t="str">
         <f>PROPER(F100)</f>
-        <v>Maskur</v>
+        <v>Dheavisca Nilla N.A</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="2">
-        <v>180431100109</v>
-      </c>
-      <c r="B101" t="str">
-        <f>PROPER(F101)</f>
-        <v>Dheavisca Nilla N.A</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>206</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
+      <c r="A101" s="36">
+        <v>160431100002</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" t="s">
-        <v>220</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:E105">
-    <sortCondition ref="A2:A105"/>
+  <sortState ref="A2:E104">
+    <sortCondition ref="A2:A104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3376,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA4CA4-1EDA-47F5-BAF1-3B406833A066}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3388,546 +3395,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5">
-        <v>170431100010</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>180431100007</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+        <v>198</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>180431100027</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+        <v>186</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>180431100057</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>180431100075</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+        <v>163</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>180431100104</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="A8" s="37">
+        <v>170431100010</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>180431100012</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+        <v>196</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>180431100032</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+        <v>184</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>180431100066</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+        <v>172</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>180431100083</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>180431100105</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="A14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
+        <v>180431100015</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <v>180431100045</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
+        <v>180431100067</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7">
+        <v>180431100088</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
+        <v>180431100106</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9">
+        <v>180431100017</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9">
+        <v>180431100048</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9">
+        <v>180431100070</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9">
+        <v>180431100090</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9">
+        <v>180431100108</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11">
+        <v>170431100102</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11">
+        <v>180431100020</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11">
+        <v>180431100050</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11">
+        <v>180431100071</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11">
+        <v>180431100091</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13">
+        <v>180431100006</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9">
-        <v>180431100015</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9">
-        <v>180431100045</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="10">
-        <v>3</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9">
-        <v>180431100067</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9">
-        <v>180431100088</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9">
-        <v>180431100106</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="10">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12">
-        <v>4</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="11">
-        <v>180431100017</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="12">
-        <v>4</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11">
-        <v>180431100048</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="11">
-        <v>180431100070</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="12">
-        <v>4</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="11">
-        <v>180431100090</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="12">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11">
-        <v>180431100108</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="12">
-        <v>4</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13">
-        <v>170431100102</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="14">
-        <v>5</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13">
-        <v>180431100020</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="14">
-        <v>5</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13">
-        <v>180431100050</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="14">
-        <v>5</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13">
-        <v>180431100071</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="14">
-        <v>5</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13">
-        <v>180431100091</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="14">
-        <v>5</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13">
-        <v>180481100071</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="14">
-        <v>5</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15">
-        <v>180431100006</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="16">
-        <v>6</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="15">
+      <c r="A33" s="13">
         <v>180431100022</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="16">
-        <v>6</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15">
+      <c r="A34" s="13">
         <v>180431100052</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="16">
-        <v>6</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15">
+      <c r="A35" s="13">
         <v>180431100073</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="16">
-        <v>6</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="15">
+      <c r="A36" s="13">
         <v>180431100097</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="16">
-        <v>6</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A2:C36">
@@ -3948,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE9CBC-E754-4446-BB06-085F26701A18}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3962,549 +3961,551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="21">
+        <v>180431100021</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="23">
+        <v>180431100014</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="23">
+        <v>180431100028</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="23">
+        <v>180431100044</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="23">
+        <v>180431100063</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="23">
+        <v>180431100086</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16">
+        <v>180431100005</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16">
+        <v>180431100018</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16">
+        <v>180431100029</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16">
+        <v>180431100047</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16">
+        <v>180431100074</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16">
+        <v>180431100094</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>180431100008</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="25">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <v>180431100019</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
+        <v>180431100030</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9">
+        <v>180431100055</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9">
+        <v>180431100076</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9">
+        <v>180431100099</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="21">
+        <v>180431100009</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="21">
         <v>170431100045</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="25">
-        <v>180431100014</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="25">
-        <v>180431100028</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="25">
-        <v>180431100044</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="25">
-        <v>180431100063</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="25">
-        <v>180431100086</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="18">
-        <v>180431100005</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="18">
-        <v>180431100018</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="19">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18">
-        <v>180431100029</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18">
-        <v>180431100047</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18">
-        <v>180431100074</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
-        <v>180431100094</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11">
-        <v>180431100008</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="12">
-        <v>3</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="B21" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="21">
+        <v>180431100035</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="21">
+        <v>180431100058</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="21">
+        <v>180431100081</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="21">
+        <v>180431100103</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="25">
+        <v>180431100011</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="25">
+        <v>180431100023</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="25">
+        <v>180431100037</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="25">
+        <v>180431100059</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="25">
+        <v>180431100085</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="27">
+        <v>180431100107</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="27">
+        <v>180431100013</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11">
-        <v>180431100019</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11">
-        <v>180431100030</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="11">
-        <v>180431100055</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="11">
-        <v>180431100076</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="11">
-        <v>180431100099</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="12">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="23">
-        <v>180431100009</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="24">
-        <v>4</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="23">
-        <v>180431100021</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="24">
-        <v>4</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="23">
-        <v>180431100035</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="24">
-        <v>4</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="23">
-        <v>180431100058</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="24">
-        <v>4</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="23">
-        <v>180431100081</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23">
-        <v>180431100103</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="24">
-        <v>4</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="27">
-        <v>180431100011</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="28">
-        <v>5</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="27">
-        <v>180431100023</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="28">
-        <v>5</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="27">
-        <v>180431100037</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="28">
-        <v>5</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="27">
-        <v>180431100059</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="28">
-        <v>5</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="27">
-        <v>180431100085</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="28">
-        <v>5</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="29">
-        <v>180431100107</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="30">
-        <v>6</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="29">
-        <v>180431100013</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="30">
-        <v>6</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="29">
+      <c r="A33" s="27">
         <v>180431100024</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="30">
-        <v>6</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="29">
+      <c r="A34" s="27">
         <v>180431100040</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="30">
-        <v>6</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="29">
+      <c r="A35" s="27">
         <v>180431100060</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="30">
-        <v>6</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="C35" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A2:C35">
@@ -4527,213 +4528,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C8574-6F63-4E5E-BE85-90A9991D66EE}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>150431100072</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>180431100016</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>180431100042</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>180431100054</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>180431100072</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>180431100096</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>180431100026</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>180431100043</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>180431100056</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>180431100077</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>180431100098</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5">
@@ -4742,15 +4743,15 @@
       <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5">
@@ -4759,13 +4760,13 @@
       <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5">
@@ -4774,13 +4775,13 @@
       <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5">
@@ -4789,13 +4790,13 @@
       <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5">
@@ -4804,289 +4805,289 @@
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>180431100100</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>180431100002</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19">
+        <v>180431100036</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>180431100049</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
+        <v>180431100062</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>180431100087</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="19">
+        <v>180431100102</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="21">
+        <v>180431100003</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="21">
-        <v>180431100036</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="22">
-        <v>4</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21">
-        <v>180431100049</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="22">
-        <v>4</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="21">
-        <v>180431100062</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="22">
-        <v>4</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21">
-        <v>180431100087</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="22">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21">
-        <v>180431100102</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="22">
-        <v>4</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23">
-        <v>180431100003</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="24">
-        <v>5</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23">
+      <c r="A27" s="21">
         <v>180431100038</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="24">
-        <v>5</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23">
+      <c r="A28" s="21">
         <v>180431100051</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="24">
-        <v>5</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="C28" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23">
+      <c r="A29" s="21">
         <v>180431100065</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
-        <v>5</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23">
+      <c r="A30" s="21">
         <v>180431100089</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="24">
-        <v>5</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>180431100109</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="24">
-        <v>5</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>180431100010</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="26">
-        <v>6</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="C32" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="25">
+      <c r="A33" s="23">
         <v>180431100041</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="26">
-        <v>6</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>180431100053</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="26">
-        <v>6</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>180431100068</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="26">
-        <v>6</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="C35" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>180431100092</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="26">
-        <v>6</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="C36" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A2:C36">

--- a/Peserta_Praktikum.xlsx
+++ b/Peserta_Praktikum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boge\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boge\Documents\GitHub\samboge.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EEFD3-6A56-4F1E-A9E6-F1D8ACDC6307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B68A0B-124D-476B-B7E6-4E93E79BBD1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="228">
   <si>
     <t>nim</t>
   </si>
@@ -868,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -887,7 +887,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,12 +898,6 @@
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -919,6 +912,12 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1235,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,20 +1267,20 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>150431100072</v>
       </c>
-      <c r="B2" s="35" t="str">
-        <f>PROPER(F2)</f>
+      <c r="B2" s="32" t="str">
+        <f t="shared" ref="B2:B33" si="0">PROPER(F2)</f>
         <v>Septian Sukma Dewantara</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>170431100010</v>
       </c>
       <c r="B3" t="str">
-        <f>PROPER(F3)</f>
+        <f t="shared" si="0"/>
         <v>Feri Danafia Syahputra</v>
       </c>
       <c r="C3" t="s">
@@ -1312,7 +1311,7 @@
         <v>170431100045</v>
       </c>
       <c r="B4" t="str">
-        <f>PROPER(F4)</f>
+        <f t="shared" si="0"/>
         <v>Habibul Abror</v>
       </c>
       <c r="C4" t="s">
@@ -1333,7 +1332,7 @@
         <v>170431100102</v>
       </c>
       <c r="B5" t="str">
-        <f>PROPER(F5)</f>
+        <f t="shared" si="0"/>
         <v>Wetina Alya</v>
       </c>
       <c r="C5" t="s">
@@ -1354,7 +1353,7 @@
         <v>180431100001</v>
       </c>
       <c r="B6" t="str">
-        <f>PROPER(F6)</f>
+        <f t="shared" si="0"/>
         <v>Lu'Lu'Ul Maknunah</v>
       </c>
       <c r="C6" t="s">
@@ -1366,7 +1365,7 @@
       <c r="E6" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="29" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1375,7 +1374,7 @@
         <v>180431100002</v>
       </c>
       <c r="B7" t="str">
-        <f>PROPER(F7)</f>
+        <f t="shared" si="0"/>
         <v>Muhammad Afif Libbasut Taqwa</v>
       </c>
       <c r="C7" t="s">
@@ -1396,7 +1395,7 @@
         <v>180431100003</v>
       </c>
       <c r="B8" t="str">
-        <f>PROPER(F8)</f>
+        <f t="shared" si="0"/>
         <v>Indana Nihayatul Husna</v>
       </c>
       <c r="C8" t="s">
@@ -1417,7 +1416,7 @@
         <v>180431100005</v>
       </c>
       <c r="B9" t="str">
-        <f>PROPER(F9)</f>
+        <f t="shared" si="0"/>
         <v>Aland Gordon Sahlan</v>
       </c>
       <c r="C9" t="s">
@@ -1438,7 +1437,7 @@
         <v>180431100006</v>
       </c>
       <c r="B10" t="str">
-        <f>PROPER(F10)</f>
+        <f t="shared" si="0"/>
         <v>Khoirul Marjan</v>
       </c>
       <c r="C10" t="s">
@@ -1459,7 +1458,7 @@
         <v>180431100007</v>
       </c>
       <c r="B11" t="str">
-        <f>PROPER(F11)</f>
+        <f t="shared" si="0"/>
         <v>Hasanuddin</v>
       </c>
       <c r="C11" t="s">
@@ -1480,7 +1479,7 @@
         <v>180431100008</v>
       </c>
       <c r="B12" t="str">
-        <f>PROPER(F12)</f>
+        <f t="shared" si="0"/>
         <v>Odiy Syahnurrokhim Khabibiy</v>
       </c>
       <c r="C12" t="s">
@@ -1501,7 +1500,7 @@
         <v>180431100009</v>
       </c>
       <c r="B13" t="str">
-        <f>PROPER(F13)</f>
+        <f t="shared" si="0"/>
         <v>Farayradiansyah</v>
       </c>
       <c r="C13" t="s">
@@ -1522,7 +1521,7 @@
         <v>180431100010</v>
       </c>
       <c r="B14" t="str">
-        <f>PROPER(F14)</f>
+        <f t="shared" si="0"/>
         <v>Rofik Romansyah</v>
       </c>
       <c r="C14" t="s">
@@ -1543,7 +1542,7 @@
         <v>180431100011</v>
       </c>
       <c r="B15" t="str">
-        <f>PROPER(F15)</f>
+        <f t="shared" si="0"/>
         <v>Mahendra Ms</v>
       </c>
       <c r="C15" t="s">
@@ -1564,7 +1563,7 @@
         <v>180431100012</v>
       </c>
       <c r="B16" t="str">
-        <f>PROPER(F16)</f>
+        <f t="shared" si="0"/>
         <v>Faidatul Hasanah</v>
       </c>
       <c r="C16" t="s">
@@ -1585,7 +1584,7 @@
         <v>180431100013</v>
       </c>
       <c r="B17" t="str">
-        <f>PROPER(F17)</f>
+        <f t="shared" si="0"/>
         <v>Mad Huri</v>
       </c>
       <c r="C17" t="s">
@@ -1606,7 +1605,7 @@
         <v>180431100014</v>
       </c>
       <c r="B18" t="str">
-        <f>PROPER(F18)</f>
+        <f t="shared" si="0"/>
         <v>Mohammad Azizul Mukhtar</v>
       </c>
       <c r="C18" t="s">
@@ -1627,7 +1626,7 @@
         <v>180431100015</v>
       </c>
       <c r="B19" t="str">
-        <f>PROPER(F19)</f>
+        <f t="shared" si="0"/>
         <v>Resa Wahyu Aditya</v>
       </c>
       <c r="C19" t="s">
@@ -1648,7 +1647,7 @@
         <v>180431100016</v>
       </c>
       <c r="B20" t="str">
-        <f>PROPER(F20)</f>
+        <f t="shared" si="0"/>
         <v>Candra Arif Kurniawan</v>
       </c>
       <c r="C20" t="s">
@@ -1669,7 +1668,7 @@
         <v>180431100017</v>
       </c>
       <c r="B21" t="str">
-        <f>PROPER(F21)</f>
+        <f t="shared" si="0"/>
         <v>Emelia Qurrotul Aini</v>
       </c>
       <c r="C21" t="s">
@@ -1690,7 +1689,7 @@
         <v>180431100018</v>
       </c>
       <c r="B22" t="str">
-        <f>PROPER(F22)</f>
+        <f t="shared" si="0"/>
         <v>Firman Khairurrizal</v>
       </c>
       <c r="C22" t="s">
@@ -1711,7 +1710,7 @@
         <v>180431100019</v>
       </c>
       <c r="B23" t="str">
-        <f>PROPER(F23)</f>
+        <f t="shared" si="0"/>
         <v>Achmad Fiqih Fathony</v>
       </c>
       <c r="C23" t="s">
@@ -1732,7 +1731,7 @@
         <v>180431100020</v>
       </c>
       <c r="B24" t="str">
-        <f>PROPER(F24)</f>
+        <f t="shared" si="0"/>
         <v>Mohammad Riqi Darmawan</v>
       </c>
       <c r="C24" t="s">
@@ -1753,7 +1752,7 @@
         <v>180431100021</v>
       </c>
       <c r="B25" t="str">
-        <f>PROPER(F25)</f>
+        <f t="shared" si="0"/>
         <v>Ma\'Ruf Pratama Putra</v>
       </c>
       <c r="C25" t="s">
@@ -1774,7 +1773,7 @@
         <v>180431100022</v>
       </c>
       <c r="B26" t="str">
-        <f>PROPER(F26)</f>
+        <f t="shared" si="0"/>
         <v>Bayu Mulya Ade W.</v>
       </c>
       <c r="C26" t="s">
@@ -1795,7 +1794,7 @@
         <v>180431100023</v>
       </c>
       <c r="B27" t="str">
-        <f>PROPER(F27)</f>
+        <f t="shared" si="0"/>
         <v>M Syaiful Anwar</v>
       </c>
       <c r="C27" t="s">
@@ -1816,7 +1815,7 @@
         <v>180431100024</v>
       </c>
       <c r="B28" t="str">
-        <f>PROPER(F28)</f>
+        <f t="shared" si="0"/>
         <v>Mohammad Nur Hidayah</v>
       </c>
       <c r="C28" t="s">
@@ -1837,7 +1836,7 @@
         <v>180431100026</v>
       </c>
       <c r="B29" t="str">
-        <f>PROPER(F29)</f>
+        <f t="shared" si="0"/>
         <v>Moh.Taufiqur Rahman</v>
       </c>
       <c r="C29" t="s">
@@ -1858,7 +1857,7 @@
         <v>180431100027</v>
       </c>
       <c r="B30" t="str">
-        <f>PROPER(F30)</f>
+        <f t="shared" si="0"/>
         <v>Moh. Iqbal Ramadlan. A</v>
       </c>
       <c r="C30" t="s">
@@ -1879,7 +1878,7 @@
         <v>180431100028</v>
       </c>
       <c r="B31" t="str">
-        <f>PROPER(F31)</f>
+        <f t="shared" si="0"/>
         <v>Abdullah Muammar A Q</v>
       </c>
       <c r="C31" t="s">
@@ -1900,7 +1899,7 @@
         <v>180431100029</v>
       </c>
       <c r="B32" t="str">
-        <f>PROPER(F32)</f>
+        <f t="shared" si="0"/>
         <v>Gunawan Arisandi</v>
       </c>
       <c r="C32" t="s">
@@ -1921,7 +1920,7 @@
         <v>180431100030</v>
       </c>
       <c r="B33" t="str">
-        <f>PROPER(F33)</f>
+        <f t="shared" si="0"/>
         <v>Ainur Rofik</v>
       </c>
       <c r="C33" t="s">
@@ -1942,7 +1941,7 @@
         <v>180431100031</v>
       </c>
       <c r="B34" t="str">
-        <f>PROPER(F34)</f>
+        <f t="shared" ref="B34:B65" si="1">PROPER(F34)</f>
         <v>Panca Muji Sulistyawan</v>
       </c>
       <c r="C34" t="s">
@@ -1963,7 +1962,7 @@
         <v>180431100032</v>
       </c>
       <c r="B35" t="str">
-        <f>PROPER(F35)</f>
+        <f t="shared" si="1"/>
         <v>Willy Dwi Sandy Firmansyah</v>
       </c>
       <c r="C35" t="s">
@@ -1984,7 +1983,7 @@
         <v>180431100035</v>
       </c>
       <c r="B36" t="str">
-        <f>PROPER(F36)</f>
+        <f t="shared" si="1"/>
         <v>Muhaa</v>
       </c>
       <c r="C36" t="s">
@@ -2005,7 +2004,7 @@
         <v>180431100036</v>
       </c>
       <c r="B37" t="str">
-        <f>PROPER(F37)</f>
+        <f t="shared" si="1"/>
         <v>Muhammad Hamdan Hendra Dermawan</v>
       </c>
       <c r="C37" t="s">
@@ -2026,7 +2025,7 @@
         <v>180431100037</v>
       </c>
       <c r="B38" t="str">
-        <f>PROPER(F38)</f>
+        <f t="shared" si="1"/>
         <v>Raka Setiyo Adji</v>
       </c>
       <c r="C38" t="s">
@@ -2047,7 +2046,7 @@
         <v>180431100038</v>
       </c>
       <c r="B39" t="str">
-        <f>PROPER(F39)</f>
+        <f t="shared" si="1"/>
         <v>Abdus Samik</v>
       </c>
       <c r="C39" t="s">
@@ -2068,7 +2067,7 @@
         <v>180431100040</v>
       </c>
       <c r="B40" t="str">
-        <f>PROPER(F40)</f>
+        <f t="shared" si="1"/>
         <v>Mohammad Izhandi Ifan Nur Rohman</v>
       </c>
       <c r="C40" t="s">
@@ -2089,7 +2088,7 @@
         <v>180431100041</v>
       </c>
       <c r="B41" t="str">
-        <f>PROPER(F41)</f>
+        <f t="shared" si="1"/>
         <v>M Yusril Febrianto</v>
       </c>
       <c r="C41" t="s">
@@ -2110,7 +2109,7 @@
         <v>180431100042</v>
       </c>
       <c r="B42" t="str">
-        <f>PROPER(F42)</f>
+        <f t="shared" si="1"/>
         <v>Ahmad Irwandani</v>
       </c>
       <c r="C42" t="s">
@@ -2131,7 +2130,7 @@
         <v>180431100043</v>
       </c>
       <c r="B43" t="str">
-        <f>PROPER(F43)</f>
+        <f t="shared" si="1"/>
         <v>Risa Sofiana</v>
       </c>
       <c r="C43" t="s">
@@ -2152,7 +2151,7 @@
         <v>180431100044</v>
       </c>
       <c r="B44" t="str">
-        <f>PROPER(F44)</f>
+        <f t="shared" si="1"/>
         <v>Firman Maulana Rosidi</v>
       </c>
       <c r="C44" t="s">
@@ -2173,7 +2172,7 @@
         <v>180431100045</v>
       </c>
       <c r="B45" t="str">
-        <f>PROPER(F45)</f>
+        <f t="shared" si="1"/>
         <v>Felix Konstantin Niel Basori</v>
       </c>
       <c r="C45" t="s">
@@ -2194,7 +2193,7 @@
         <v>180431100046</v>
       </c>
       <c r="B46" t="str">
-        <f>PROPER(F46)</f>
+        <f t="shared" si="1"/>
         <v>Ahmad Rizal Rinaldhi</v>
       </c>
       <c r="C46" t="s">
@@ -2215,7 +2214,7 @@
         <v>180431100047</v>
       </c>
       <c r="B47" t="str">
-        <f>PROPER(F47)</f>
+        <f t="shared" si="1"/>
         <v>Ach. Jufri</v>
       </c>
       <c r="C47" t="s">
@@ -2236,7 +2235,7 @@
         <v>180431100048</v>
       </c>
       <c r="B48" t="str">
-        <f>PROPER(F48)</f>
+        <f t="shared" si="1"/>
         <v>Ella Rosa Mega Damayani</v>
       </c>
       <c r="C48" t="s">
@@ -2257,7 +2256,7 @@
         <v>180431100049</v>
       </c>
       <c r="B49" t="str">
-        <f>PROPER(F49)</f>
+        <f t="shared" si="1"/>
         <v>Rakhmat Bramudiansyah</v>
       </c>
       <c r="C49" t="s">
@@ -2278,7 +2277,7 @@
         <v>180431100050</v>
       </c>
       <c r="B50" t="str">
-        <f>PROPER(F50)</f>
+        <f t="shared" si="1"/>
         <v>Bagas Setiawan</v>
       </c>
       <c r="C50" t="s">
@@ -2299,7 +2298,7 @@
         <v>180431100051</v>
       </c>
       <c r="B51" t="str">
-        <f>PROPER(F51)</f>
+        <f t="shared" si="1"/>
         <v>Arif Dwi Cahyo</v>
       </c>
       <c r="C51" t="s">
@@ -2320,7 +2319,7 @@
         <v>180431100052</v>
       </c>
       <c r="B52" t="str">
-        <f>PROPER(F52)</f>
+        <f t="shared" si="1"/>
         <v>Andaru Adhi Sampurno</v>
       </c>
       <c r="C52" t="s">
@@ -2341,7 +2340,7 @@
         <v>180431100053</v>
       </c>
       <c r="B53" t="str">
-        <f>PROPER(F53)</f>
+        <f t="shared" si="1"/>
         <v>Moch Ifan Juliyanto</v>
       </c>
       <c r="C53" t="s">
@@ -2362,7 +2361,7 @@
         <v>180431100054</v>
       </c>
       <c r="B54" t="str">
-        <f>PROPER(F54)</f>
+        <f t="shared" si="1"/>
         <v>Kusumaningtyas S S</v>
       </c>
       <c r="C54" t="s">
@@ -2383,7 +2382,7 @@
         <v>180431100055</v>
       </c>
       <c r="B55" t="str">
-        <f>PROPER(F55)</f>
+        <f t="shared" si="1"/>
         <v>Mochammad Ilham Alamsyah</v>
       </c>
       <c r="C55" t="s">
@@ -2404,7 +2403,7 @@
         <v>180431100056</v>
       </c>
       <c r="B56" t="str">
-        <f>PROPER(F56)</f>
+        <f t="shared" si="1"/>
         <v>Lailatus Sholihah</v>
       </c>
       <c r="C56" t="s">
@@ -2425,7 +2424,7 @@
         <v>180431100057</v>
       </c>
       <c r="B57" t="str">
-        <f>PROPER(F57)</f>
+        <f t="shared" si="1"/>
         <v>Dany Maulana</v>
       </c>
       <c r="C57" t="s">
@@ -2446,7 +2445,7 @@
         <v>180431100058</v>
       </c>
       <c r="B58" t="str">
-        <f>PROPER(F58)</f>
+        <f t="shared" si="1"/>
         <v>Cahyo Satriawan</v>
       </c>
       <c r="C58" t="s">
@@ -2467,7 +2466,7 @@
         <v>180431100059</v>
       </c>
       <c r="B59" t="str">
-        <f>PROPER(F59)</f>
+        <f t="shared" si="1"/>
         <v>Moh. Ali Ikbal</v>
       </c>
       <c r="C59" t="s">
@@ -2488,7 +2487,7 @@
         <v>180431100060</v>
       </c>
       <c r="B60" t="str">
-        <f>PROPER(F60)</f>
+        <f t="shared" si="1"/>
         <v>Moch Rif\'An Maulana</v>
       </c>
       <c r="C60" t="s">
@@ -2509,7 +2508,7 @@
         <v>180431100061</v>
       </c>
       <c r="B61" t="str">
-        <f>PROPER(F61)</f>
+        <f t="shared" si="1"/>
         <v>Winindra Al Haq</v>
       </c>
       <c r="C61" t="s">
@@ -2530,7 +2529,7 @@
         <v>180431100062</v>
       </c>
       <c r="B62" t="str">
-        <f>PROPER(F62)</f>
+        <f t="shared" si="1"/>
         <v>Faurizal Abid Arditya</v>
       </c>
       <c r="C62" t="s">
@@ -2551,7 +2550,7 @@
         <v>180431100063</v>
       </c>
       <c r="B63" t="str">
-        <f>PROPER(F63)</f>
+        <f t="shared" si="1"/>
         <v>M. Iqbal Praetyo</v>
       </c>
       <c r="C63" t="s">
@@ -2572,7 +2571,7 @@
         <v>180431100065</v>
       </c>
       <c r="B64" t="str">
-        <f>PROPER(F64)</f>
+        <f t="shared" si="1"/>
         <v>Fauzan Firly Abdillah</v>
       </c>
       <c r="C64" t="s">
@@ -2593,7 +2592,7 @@
         <v>180431100066</v>
       </c>
       <c r="B65" t="str">
-        <f>PROPER(F65)</f>
+        <f t="shared" si="1"/>
         <v>Abd. Rofik</v>
       </c>
       <c r="C65" t="s">
@@ -2614,7 +2613,7 @@
         <v>180431100067</v>
       </c>
       <c r="B66" t="str">
-        <f>PROPER(F66)</f>
+        <f t="shared" ref="B66:B100" si="2">PROPER(F66)</f>
         <v>Amin Rais</v>
       </c>
       <c r="C66" t="s">
@@ -2635,7 +2634,7 @@
         <v>180431100068</v>
       </c>
       <c r="B67" t="str">
-        <f>PROPER(F67)</f>
+        <f t="shared" si="2"/>
         <v>Dhimas Dwi Putra Setiyawan</v>
       </c>
       <c r="C67" t="s">
@@ -2656,7 +2655,7 @@
         <v>180431100070</v>
       </c>
       <c r="B68" t="str">
-        <f>PROPER(F68)</f>
+        <f t="shared" si="2"/>
         <v>Moh. Nurul Anwar</v>
       </c>
       <c r="C68" t="s">
@@ -2677,7 +2676,7 @@
         <v>180431100071</v>
       </c>
       <c r="B69" t="str">
-        <f>PROPER(F69)</f>
+        <f t="shared" si="2"/>
         <v>Clarisna Evita</v>
       </c>
       <c r="C69" t="s">
@@ -2698,7 +2697,7 @@
         <v>180431100072</v>
       </c>
       <c r="B70" t="str">
-        <f>PROPER(F70)</f>
+        <f t="shared" si="2"/>
         <v>Moch. Hidayatulloh</v>
       </c>
       <c r="C70" t="s">
@@ -2719,7 +2718,7 @@
         <v>180431100073</v>
       </c>
       <c r="B71" t="str">
-        <f>PROPER(F71)</f>
+        <f t="shared" si="2"/>
         <v>Mokhamad Javan Wahtu Setyo</v>
       </c>
       <c r="C71" t="s">
@@ -2740,7 +2739,7 @@
         <v>180431100074</v>
       </c>
       <c r="B72" t="str">
-        <f>PROPER(F72)</f>
+        <f t="shared" si="2"/>
         <v>M Faizal Al Ikbal</v>
       </c>
       <c r="C72" t="s">
@@ -2761,7 +2760,7 @@
         <v>180431100075</v>
       </c>
       <c r="B73" t="str">
-        <f>PROPER(F73)</f>
+        <f t="shared" si="2"/>
         <v>Shofiyul Fuad</v>
       </c>
       <c r="C73" t="s">
@@ -2782,7 +2781,7 @@
         <v>180431100076</v>
       </c>
       <c r="B74" t="str">
-        <f>PROPER(F74)</f>
+        <f t="shared" si="2"/>
         <v>M. Luthfi Arif Budiono</v>
       </c>
       <c r="C74" t="s">
@@ -2803,7 +2802,7 @@
         <v>180431100077</v>
       </c>
       <c r="B75" t="str">
-        <f>PROPER(F75)</f>
+        <f t="shared" si="2"/>
         <v>Hariesandi Rizkiyan</v>
       </c>
       <c r="C75" t="s">
@@ -2824,7 +2823,7 @@
         <v>180431100081</v>
       </c>
       <c r="B76" t="str">
-        <f>PROPER(F76)</f>
+        <f t="shared" si="2"/>
         <v>R. Adam Yulianto Siliwangi</v>
       </c>
       <c r="C76" t="s">
@@ -2845,7 +2844,7 @@
         <v>180431100083</v>
       </c>
       <c r="B77" t="str">
-        <f>PROPER(F77)</f>
+        <f t="shared" si="2"/>
         <v>Burhanuddin</v>
       </c>
       <c r="C77" t="s">
@@ -2866,7 +2865,7 @@
         <v>180431100084</v>
       </c>
       <c r="B78" t="str">
-        <f>PROPER(F78)</f>
+        <f t="shared" si="2"/>
         <v>Alrizqi Fauzan</v>
       </c>
       <c r="C78" t="s">
@@ -2887,7 +2886,7 @@
         <v>180431100085</v>
       </c>
       <c r="B79" t="str">
-        <f>PROPER(F79)</f>
+        <f t="shared" si="2"/>
         <v>Kemas Dwiky Ariyanto</v>
       </c>
       <c r="C79" t="s">
@@ -2908,7 +2907,7 @@
         <v>180431100086</v>
       </c>
       <c r="B80" t="str">
-        <f>PROPER(F80)</f>
+        <f t="shared" si="2"/>
         <v>Ahmad Lailil Qomariy</v>
       </c>
       <c r="C80" t="s">
@@ -2929,7 +2928,7 @@
         <v>180431100087</v>
       </c>
       <c r="B81" t="str">
-        <f>PROPER(F81)</f>
+        <f t="shared" si="2"/>
         <v>Mochammad Faiqur Rutab</v>
       </c>
       <c r="C81" t="s">
@@ -2950,7 +2949,7 @@
         <v>180431100088</v>
       </c>
       <c r="B82" t="str">
-        <f>PROPER(F82)</f>
+        <f t="shared" si="2"/>
         <v>Raifanda Alfari</v>
       </c>
       <c r="C82" t="s">
@@ -2971,7 +2970,7 @@
         <v>180431100089</v>
       </c>
       <c r="B83" t="str">
-        <f>PROPER(F83)</f>
+        <f t="shared" si="2"/>
         <v>Shudaesy Daniel Islamie</v>
       </c>
       <c r="C83" t="s">
@@ -2992,7 +2991,7 @@
         <v>180431100090</v>
       </c>
       <c r="B84" t="str">
-        <f>PROPER(F84)</f>
+        <f t="shared" si="2"/>
         <v>Cahya Salman Farisi</v>
       </c>
       <c r="C84" t="s">
@@ -3013,7 +3012,7 @@
         <v>180431100091</v>
       </c>
       <c r="B85" t="str">
-        <f>PROPER(F85)</f>
+        <f t="shared" si="2"/>
         <v>Suridah</v>
       </c>
       <c r="C85" t="s">
@@ -3034,7 +3033,7 @@
         <v>180431100092</v>
       </c>
       <c r="B86" t="str">
-        <f>PROPER(F86)</f>
+        <f t="shared" si="2"/>
         <v>Hizqil Wildan</v>
       </c>
       <c r="C86" t="s">
@@ -3055,7 +3054,7 @@
         <v>180431100094</v>
       </c>
       <c r="B87" t="str">
-        <f>PROPER(F87)</f>
+        <f t="shared" si="2"/>
         <v>Johansyah Irnawan</v>
       </c>
       <c r="C87" t="s">
@@ -3076,7 +3075,7 @@
         <v>180431100096</v>
       </c>
       <c r="B88" t="str">
-        <f>PROPER(F88)</f>
+        <f t="shared" si="2"/>
         <v>Alfian Sahril Rachmanto</v>
       </c>
       <c r="C88" t="s">
@@ -3097,7 +3096,7 @@
         <v>180431100097</v>
       </c>
       <c r="B89" t="str">
-        <f>PROPER(F89)</f>
+        <f t="shared" si="2"/>
         <v>Muhammad Afif Alfian</v>
       </c>
       <c r="C89" t="s">
@@ -3118,7 +3117,7 @@
         <v>180431100098</v>
       </c>
       <c r="B90" t="str">
-        <f>PROPER(F90)</f>
+        <f t="shared" si="2"/>
         <v>Arief Wahyuddin</v>
       </c>
       <c r="C90" t="s">
@@ -3139,7 +3138,7 @@
         <v>180431100099</v>
       </c>
       <c r="B91" t="str">
-        <f>PROPER(F91)</f>
+        <f t="shared" si="2"/>
         <v>Sultoni Al Farizi</v>
       </c>
       <c r="C91" t="s">
@@ -3160,7 +3159,7 @@
         <v>180431100100</v>
       </c>
       <c r="B92" t="str">
-        <f>PROPER(F92)</f>
+        <f t="shared" si="2"/>
         <v>Imam Syafi'E</v>
       </c>
       <c r="C92" t="s">
@@ -3181,7 +3180,7 @@
         <v>180431100102</v>
       </c>
       <c r="B93" t="str">
-        <f>PROPER(F93)</f>
+        <f t="shared" si="2"/>
         <v>Philipus Tedy Lukmantoro</v>
       </c>
       <c r="C93" t="s">
@@ -3202,7 +3201,7 @@
         <v>180431100103</v>
       </c>
       <c r="B94" t="str">
-        <f>PROPER(F94)</f>
+        <f t="shared" si="2"/>
         <v>Gege Maulid Dewanata</v>
       </c>
       <c r="C94" t="s">
@@ -3223,7 +3222,7 @@
         <v>180431100104</v>
       </c>
       <c r="B95" t="str">
-        <f>PROPER(F95)</f>
+        <f t="shared" si="2"/>
         <v>Muhammad Aminullah</v>
       </c>
       <c r="C95" t="s">
@@ -3244,7 +3243,7 @@
         <v>180431100105</v>
       </c>
       <c r="B96" t="str">
-        <f>PROPER(F96)</f>
+        <f t="shared" si="2"/>
         <v>Ahmad Handika Nadyawan</v>
       </c>
       <c r="C96" t="s">
@@ -3265,7 +3264,7 @@
         <v>180431100106</v>
       </c>
       <c r="B97" t="str">
-        <f>PROPER(F97)</f>
+        <f t="shared" si="2"/>
         <v>Salsabilah</v>
       </c>
       <c r="C97" t="s">
@@ -3286,7 +3285,7 @@
         <v>180431100107</v>
       </c>
       <c r="B98" t="str">
-        <f>PROPER(F98)</f>
+        <f t="shared" si="2"/>
         <v>Muhammad Afifuzzaki Yoga Alif</v>
       </c>
       <c r="C98" t="s">
@@ -3307,7 +3306,7 @@
         <v>180431100108</v>
       </c>
       <c r="B99" t="str">
-        <f>PROPER(F99)</f>
+        <f t="shared" si="2"/>
         <v>Maskur</v>
       </c>
       <c r="C99" t="s">
@@ -3328,7 +3327,7 @@
         <v>180431100109</v>
       </c>
       <c r="B100" t="str">
-        <f>PROPER(F100)</f>
+        <f t="shared" si="2"/>
         <v>Dheavisca Nilla N.A</v>
       </c>
       <c r="C100" t="s">
@@ -3345,19 +3344,19 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="36">
+      <c r="A101" s="33">
         <v>160431100002</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="32" t="s">
+      <c r="E101" s="29" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3383,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA4CA4-1EDA-47F5-BAF1-3B406833A066}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3395,33 +3394,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5">
@@ -3433,10 +3432,10 @@
       <c r="C3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5">
@@ -3448,10 +3447,10 @@
       <c r="C4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5">
@@ -3463,10 +3462,10 @@
       <c r="C5" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -3478,10 +3477,10 @@
       <c r="C6" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -3493,27 +3492,27 @@
       <c r="C7" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>170431100010</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
@@ -3525,10 +3524,10 @@
       <c r="C9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
@@ -3540,10 +3539,10 @@
       <c r="C10" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -3555,10 +3554,10 @@
       <c r="C11" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
@@ -3570,10 +3569,10 @@
       <c r="C12" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
@@ -3585,22 +3584,22 @@
       <c r="C13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7">
@@ -3612,10 +3611,10 @@
       <c r="C15" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7">
@@ -3627,10 +3626,10 @@
       <c r="C16" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7">
@@ -3642,10 +3641,10 @@
       <c r="C17" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7">
@@ -3657,10 +3656,10 @@
       <c r="C18" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7">
@@ -3672,22 +3671,22 @@
       <c r="C19" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="C20" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9">
@@ -3699,10 +3698,10 @@
       <c r="C21" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9">
@@ -3714,10 +3713,10 @@
       <c r="C22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9">
@@ -3729,10 +3728,10 @@
       <c r="C23" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9">
@@ -3744,10 +3743,10 @@
       <c r="C24" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9">
@@ -3759,10 +3758,10 @@
       <c r="C25" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11">
@@ -3774,12 +3773,12 @@
       <c r="C26" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="11">
@@ -3791,10 +3790,10 @@
       <c r="C27" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11">
@@ -3806,10 +3805,10 @@
       <c r="C28" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="11">
@@ -3821,10 +3820,10 @@
       <c r="C29" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11">
@@ -3836,37 +3835,28 @@
       <c r="C30" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11"/>
       <c r="C31" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13">
-        <v>180431100006</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="13">
@@ -3878,10 +3868,10 @@
       <c r="C33" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="13">
@@ -3893,10 +3883,10 @@
       <c r="C34" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="13">
@@ -3905,13 +3895,13 @@
       <c r="B35" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="13">
@@ -3920,13 +3910,13 @@
       <c r="B36" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
   </sheetData>
   <sortState ref="A2:C36">
@@ -3961,113 +3951,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>180431100021</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>180431100014</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>180431100028</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>180431100044</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>180431100063</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>180431100086</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16">
@@ -4076,15 +4066,15 @@
       <c r="B8" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16">
@@ -4093,13 +4083,13 @@
       <c r="B9" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16">
@@ -4108,13 +4098,13 @@
       <c r="B10" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16">
@@ -4123,13 +4113,13 @@
       <c r="B11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16">
@@ -4138,13 +4128,13 @@
       <c r="B12" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16">
@@ -4153,13 +4143,13 @@
       <c r="B13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9">
@@ -4168,15 +4158,15 @@
       <c r="B14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9">
@@ -4185,13 +4175,13 @@
       <c r="B15" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9">
@@ -4200,13 +4190,13 @@
       <c r="B16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9">
@@ -4215,13 +4205,13 @@
       <c r="B17" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9">
@@ -4230,13 +4220,13 @@
       <c r="B18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9">
@@ -4245,267 +4235,267 @@
       <c r="B19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>180431100009</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="33"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>170431100045</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>180431100035</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>180431100058</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>180431100081</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>180431100103</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>180431100011</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>180431100023</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>180431100037</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>180431100059</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>180431100085</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>180431100107</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>180431100013</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <v>180431100024</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>180431100040</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>180431100060</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
   </sheetData>
   <sortState ref="A2:C35">
@@ -4528,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C8574-6F63-4E5E-BE85-90A9991D66EE}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4540,21 +4530,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="13">
@@ -4566,12 +4556,12 @@
       <c r="C2" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="13">
@@ -4583,10 +4573,10 @@
       <c r="C3" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="13">
@@ -4598,10 +4588,10 @@
       <c r="C4" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="13">
@@ -4613,10 +4603,10 @@
       <c r="C5" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="13">
@@ -4628,10 +4618,10 @@
       <c r="C6" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="13">
@@ -4643,23 +4633,27 @@
       <c r="C7" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="9">
+        <v>180431100006</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9">
@@ -4671,10 +4665,10 @@
       <c r="C9" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9">
@@ -4686,10 +4680,10 @@
       <c r="C10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9">
@@ -4701,10 +4695,10 @@
       <c r="C11" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9">
@@ -4716,10 +4710,10 @@
       <c r="C12" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9">
@@ -4731,10 +4725,10 @@
       <c r="C13" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5">
@@ -4746,12 +4740,12 @@
       <c r="C14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5">
@@ -4763,10 +4757,10 @@
       <c r="C15" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5">
@@ -4778,10 +4772,10 @@
       <c r="C16" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5">
@@ -4793,10 +4787,10 @@
       <c r="C17" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5">
@@ -4808,10 +4802,10 @@
       <c r="C18" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5">
@@ -4823,271 +4817,271 @@
       <c r="C19" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>180431100002</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>180431100036</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>180431100049</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>180431100062</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>180431100087</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>180431100102</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>180431100003</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>180431100038</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>180431100051</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>180431100065</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>180431100089</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>180431100109</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>180431100010</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>180431100041</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>180431100053</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>180431100068</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>180431100092</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
   </sheetData>
   <sortState ref="A2:C36">

--- a/Peserta_Praktikum.xlsx
+++ b/Peserta_Praktikum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boge\Documents\GitHub\samboge.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B68A0B-124D-476B-B7E6-4E93E79BBD1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF37CBD-4DB9-4506-9DC5-1EC6E4DD6B36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBL19" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="231">
   <si>
     <t>nim</t>
   </si>
@@ -254,9 +254,6 @@
     <t>20191TKE308C180431100001</t>
   </si>
   <si>
-    <t>20191TKE308C150431100072</t>
-  </si>
-  <si>
     <t>MUHAMMAD AFIFUZZAKI YOGA ALIF</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
     <t>kelompok</t>
   </si>
   <si>
-    <t>Dhikyak Falakhul Akmal</t>
-  </si>
-  <si>
     <t>Novi Cahaya Putra</t>
   </si>
   <si>
@@ -714,13 +708,28 @@
   </si>
   <si>
     <t>GALVANO</t>
+  </si>
+  <si>
+    <t>M Dhikyak Falakhul Akmal</t>
+  </si>
+  <si>
+    <t>Malik Ibrahim</t>
+  </si>
+  <si>
+    <t>-mohon konfirmasi</t>
+  </si>
+  <si>
+    <t>M. Dhikyak Falakhul Akmal</t>
+  </si>
+  <si>
+    <t>Ma'ruf pratama putra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -729,14 +738,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -770,7 +771,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,8 +856,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -864,60 +871,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,44 +1439,44 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="33">
-        <v>150431100072</v>
-      </c>
-      <c r="B2" s="32" t="str">
-        <f t="shared" ref="B2:B33" si="0">PROPER(F2)</f>
-        <v>Septian Sukma Dewantara</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="2">
+        <v>170431100010</v>
+      </c>
+      <c r="B2" t="str">
+        <f>PROPER(F3)</f>
+        <v>Feri Danafia Syahputra</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>170431100010</v>
+        <v>170431100045</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>Feri Danafia Syahputra</v>
+        <f>PROPER(F4)</f>
+        <v>Habibul Abror</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1308,41 +1484,41 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>170431100045</v>
+        <v>170431100102</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Habibul Abror</v>
+        <f>PROPER(F5)</f>
+        <v>Wetina Alya</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>170431100102</v>
+        <v>180431100001</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Wetina Alya</v>
+        <f>PROPER(F6)</f>
+        <v>Lu'Lu'Ul Maknunah</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1350,41 +1526,41 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>180431100001</v>
+        <v>180431100002</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Lu'Lu'Ul Maknunah</v>
+        <f>PROPER(F7)</f>
+        <v>Muhammad Afif Libbasut Taqwa</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>220</v>
+        <v>204</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>180431100002</v>
+        <v>180431100003</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Muhammad Afif Libbasut Taqwa</v>
+        <f>PROPER(F8)</f>
+        <v>Indana Nihayatul Husna</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1392,20 +1568,20 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>180431100003</v>
+        <v>180431100005</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Indana Nihayatul Husna</v>
+        <f>PROPER(F9)</f>
+        <v>Aland Gordon Sahlan</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1413,125 +1589,125 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>180431100005</v>
+        <v>180431100006</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Aland Gordon Sahlan</v>
+        <f>PROPER(F10)</f>
+        <v>Khoirul Marjan</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>180431100006</v>
+        <v>180431100007</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Khoirul Marjan</v>
+        <f>PROPER(F11)</f>
+        <v>Hasanuddin</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>180431100007</v>
+        <v>180431100008</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Hasanuddin</v>
+        <f>PROPER(F12)</f>
+        <v>Odiy Syahnurrokhim Khabibiy</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>180431100008</v>
+        <v>180431100009</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Odiy Syahnurrokhim Khabibiy</v>
+        <f>PROPER(F13)</f>
+        <v>Farayradiansyah</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>180431100009</v>
+        <v>180431100010</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Farayradiansyah</v>
+        <f>PROPER(F14)</f>
+        <v>Rofik Romansyah</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>180431100010</v>
+        <v>180431100011</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Rofik Romansyah</v>
+        <f>PROPER(F15)</f>
+        <v>Mahendra Ms</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
@@ -1539,125 +1715,125 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>180431100011</v>
+        <v>180431100012</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Mahendra Ms</v>
+        <f>PROPER(F16)</f>
+        <v>Faidatul Hasanah</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>180431100012</v>
+        <v>180431100013</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Faidatul Hasanah</v>
+        <f>PROPER(F17)</f>
+        <v>Mad Huri</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>180431100013</v>
+        <v>180431100014</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Mad Huri</v>
+        <f>PROPER(F18)</f>
+        <v>Mohammad Azizul Mukhtar</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>180431100014</v>
+        <v>180431100015</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Mohammad Azizul Mukhtar</v>
+        <f>PROPER(F19)</f>
+        <v>Resa Wahyu Aditya</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>180431100015</v>
+        <v>180431100016</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Resa Wahyu Aditya</v>
+        <f>PROPER(F20)</f>
+        <v>Candra Arif Kurniawan</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>180431100016</v>
+        <v>180431100017</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Candra Arif Kurniawan</v>
+        <f>PROPER(F21)</f>
+        <v>Emelia Qurrotul Aini</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -1665,188 +1841,188 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>180431100017</v>
+        <v>180431100018</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Emelia Qurrotul Aini</v>
+        <f>PROPER(F22)</f>
+        <v>Firman Khairurrizal</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>180431100018</v>
+        <v>180431100019</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Firman Khairurrizal</v>
+        <f>PROPER(F23)</f>
+        <v>Achmad Fiqih Fathony</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>180431100019</v>
+        <v>180431100020</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Achmad Fiqih Fathony</v>
+        <f>PROPER(F24)</f>
+        <v>Mohammad Riqi Darmawan</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>180431100020</v>
+        <v>180431100021</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Mohammad Riqi Darmawan</v>
+        <f>PROPER(F25)</f>
+        <v>Ma\'Ruf Pratama Putra</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>180431100021</v>
+        <v>180431100022</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ma\'Ruf Pratama Putra</v>
+        <f>PROPER(F26)</f>
+        <v>Bayu Mulya Ade W.</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>180431100022</v>
+        <v>180431100023</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Bayu Mulya Ade W.</v>
+        <f>PROPER(F27)</f>
+        <v>M Syaiful Anwar</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>180431100023</v>
+        <v>180431100024</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>M Syaiful Anwar</v>
+        <f>PROPER(F28)</f>
+        <v>Mohammad Nur Hidayah</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>180431100024</v>
+        <v>180431100026</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Mohammad Nur Hidayah</v>
+        <f>PROPER(F29)</f>
+        <v>Moh.Taufiqur Rahman</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>180431100026</v>
+        <v>180431100027</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Moh.Taufiqur Rahman</v>
+        <f>PROPER(F30)</f>
+        <v>Moh. Iqbal Ramadlan. A</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -1854,104 +2030,104 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>180431100027</v>
+        <v>180431100028</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Moh. Iqbal Ramadlan. A</v>
+        <f>PROPER(F31)</f>
+        <v>Abdullah Muammar A Q</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>180431100028</v>
+        <v>180431100029</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Abdullah Muammar A Q</v>
+        <f>PROPER(F32)</f>
+        <v>Gunawan Arisandi</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>180431100029</v>
+        <v>180431100030</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Gunawan Arisandi</v>
+        <f>PROPER(F33)</f>
+        <v>Ainur Rofik</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>180431100030</v>
+        <v>180431100031</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ainur Rofik</v>
+        <f>PROPER(F34)</f>
+        <v>Panca Muji Sulistyawan</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>180431100031</v>
+        <v>180431100032</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B65" si="1">PROPER(F34)</f>
-        <v>Panca Muji Sulistyawan</v>
+        <f>PROPER(F35)</f>
+        <v>Willy Dwi Sandy Firmansyah</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
         <v>60</v>
@@ -1959,62 +2135,62 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>180431100032</v>
+        <v>180431100035</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
-        <v>Willy Dwi Sandy Firmansyah</v>
+        <f>PROPER(F36)</f>
+        <v>Muhaa</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>180431100035</v>
+        <v>180431100036</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>Muhaa</v>
+        <f>PROPER(F37)</f>
+        <v>Muhammad Hamdan Hendra Dermawan</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>180431100036</v>
+        <v>180431100037</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
-        <v>Muhammad Hamdan Hendra Dermawan</v>
+        <f>PROPER(F38)</f>
+        <v>Raka Setiyo Adji</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -2022,41 +2198,41 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>180431100037</v>
+        <v>180431100038</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>Raka Setiyo Adji</v>
+        <f>PROPER(F39)</f>
+        <v>Abdus Samik</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>180431100038</v>
+        <v>180431100040</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>Abdus Samik</v>
+        <f>PROPER(F40)</f>
+        <v>Mohammad Izhandi Ifan Nur Rohman</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
@@ -2064,41 +2240,41 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>180431100040</v>
+        <v>180431100041</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>Mohammad Izhandi Ifan Nur Rohman</v>
+        <f>PROPER(F41)</f>
+        <v>M Yusril Febrianto</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>180431100041</v>
+        <v>180431100042</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>M Yusril Febrianto</v>
+        <f>PROPER(F42)</f>
+        <v>Ahmad Irwandani</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -2106,20 +2282,20 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>180431100042</v>
+        <v>180431100043</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>Ahmad Irwandani</v>
+        <f>PROPER(F43)</f>
+        <v>Risa Sofiana</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
         <v>52</v>
@@ -2127,20 +2303,20 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>180431100043</v>
+        <v>180431100044</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>Risa Sofiana</v>
+        <f>PROPER(F44)</f>
+        <v>Firman Maulana Rosidi</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
         <v>50</v>
@@ -2148,62 +2324,62 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>180431100044</v>
+        <v>180431100045</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>Firman Maulana Rosidi</v>
+        <f>PROPER(F45)</f>
+        <v>Felix Konstantin Niel Basori</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>180431100045</v>
+        <v>180431100046</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>Felix Konstantin Niel Basori</v>
+        <f>PROPER(F46)</f>
+        <v>Ahmad Rizal Rinaldhi</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>180431100046</v>
+        <v>180431100047</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>Ahmad Rizal Rinaldhi</v>
+        <f>PROPER(F47)</f>
+        <v>Ach. Jufri</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
         <v>48</v>
@@ -2211,62 +2387,62 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>180431100047</v>
+        <v>180431100048</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>Ach. Jufri</v>
+        <f>PROPER(F48)</f>
+        <v>Ella Rosa Mega Damayani</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>180431100048</v>
+        <v>180431100049</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>Ella Rosa Mega Damayani</v>
+        <f>PROPER(F49)</f>
+        <v>Rakhmat Bramudiansyah</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>180431100049</v>
+        <v>180431100050</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>Rakhmat Bramudiansyah</v>
+        <f>PROPER(F50)</f>
+        <v>Bagas Setiawan</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
@@ -2274,41 +2450,41 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>180431100050</v>
+        <v>180431100051</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>Bagas Setiawan</v>
+        <f>PROPER(F51)</f>
+        <v>Arif Dwi Cahyo</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>180431100051</v>
+        <v>180431100052</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
-        <v>Arif Dwi Cahyo</v>
+        <f>PROPER(F52)</f>
+        <v>Andaru Adhi Sampurno</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -2316,41 +2492,41 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>180431100052</v>
+        <v>180431100053</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
-        <v>Andaru Adhi Sampurno</v>
+        <f>PROPER(F53)</f>
+        <v>Moch Ifan Juliyanto</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>180431100053</v>
+        <v>180431100054</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>Moch Ifan Juliyanto</v>
+        <f>PROPER(F54)</f>
+        <v>Kusumaningtyas S S</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2358,20 +2534,20 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>180431100054</v>
+        <v>180431100055</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>Kusumaningtyas S S</v>
+        <f>PROPER(F55)</f>
+        <v>Mochammad Ilham Alamsyah</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -2379,41 +2555,41 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>180431100055</v>
+        <v>180431100056</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
-        <v>Mochammad Ilham Alamsyah</v>
+        <f>PROPER(F56)</f>
+        <v>Lailatus Sholihah</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>180431100056</v>
+        <v>180431100057</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>Lailatus Sholihah</v>
+        <f>PROPER(F57)</f>
+        <v>Dany Maulana</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -2421,104 +2597,104 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>180431100057</v>
+        <v>180431100058</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
-        <v>Dany Maulana</v>
+        <f>PROPER(F58)</f>
+        <v>Cahyo Satriawan</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>180431100058</v>
+        <v>180431100059</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
-        <v>Cahyo Satriawan</v>
+        <f>PROPER(F59)</f>
+        <v>Moh. Ali Ikbal</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>180431100059</v>
+        <v>180431100060</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
-        <v>Moh. Ali Ikbal</v>
+        <f>PROPER(F60)</f>
+        <v>Moch Rif\'An Maulana</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>180431100060</v>
+        <v>180431100061</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
-        <v>Moch Rif\'An Maulana</v>
+        <f>PROPER(F61)</f>
+        <v>Winindra Al Haq</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>180431100061</v>
+        <v>180431100062</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
-        <v>Winindra Al Haq</v>
+        <f>PROPER(F62)</f>
+        <v>Faurizal Abid Arditya</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
@@ -2526,20 +2702,20 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>180431100062</v>
+        <v>180431100063</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
-        <v>Faurizal Abid Arditya</v>
+        <f>PROPER(F63)</f>
+        <v>M. Iqbal Praetyo</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
@@ -2547,41 +2723,41 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>180431100063</v>
+        <v>180431100065</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
-        <v>M. Iqbal Praetyo</v>
+        <f>PROPER(F64)</f>
+        <v>Fauzan Firly Abdillah</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>180431100065</v>
+        <v>180431100066</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
-        <v>Fauzan Firly Abdillah</v>
+        <f>PROPER(F65)</f>
+        <v>Abd. Rofik</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -2589,62 +2765,62 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>180431100066</v>
+        <v>180431100067</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>Abd. Rofik</v>
+        <f>PROPER(F66)</f>
+        <v>Amin Rais</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>180431100067</v>
+        <v>180431100068</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B100" si="2">PROPER(F66)</f>
-        <v>Amin Rais</v>
+        <f>PROPER(F67)</f>
+        <v>Dhimas Dwi Putra Setiyawan</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>180431100068</v>
+        <v>180431100070</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="2"/>
-        <v>Dhimas Dwi Putra Setiyawan</v>
+        <f>PROPER(F68)</f>
+        <v>Moh. Nurul Anwar</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -2652,62 +2828,62 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>180431100070</v>
+        <v>180431100071</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>Moh. Nurul Anwar</v>
+        <f>PROPER(F69)</f>
+        <v>Clarisna Evita</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>180431100071</v>
+        <v>180431100072</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>Clarisna Evita</v>
+        <f>PROPER(F70)</f>
+        <v>Moch. Hidayatulloh</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>180431100072</v>
+        <v>180431100073</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>Moch. Hidayatulloh</v>
+        <f>PROPER(F71)</f>
+        <v>Mokhamad Javan Wahtu Setyo</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
         <v>28</v>
@@ -2715,104 +2891,104 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>180431100073</v>
+        <v>180431100074</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>Mokhamad Javan Wahtu Setyo</v>
+        <f>PROPER(F72)</f>
+        <v>M Faizal Al Ikbal</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>180431100074</v>
+        <v>180431100075</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>M Faizal Al Ikbal</v>
+        <f>PROPER(F73)</f>
+        <v>Shofiyul Fuad</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>180431100075</v>
+        <v>180431100076</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>Shofiyul Fuad</v>
+        <f>PROPER(F74)</f>
+        <v>M. Luthfi Arif Budiono</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>180431100076</v>
+        <v>180431100077</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>M. Luthfi Arif Budiono</v>
+        <f>PROPER(F75)</f>
+        <v>Hariesandi Rizkiyan</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>180431100077</v>
+        <v>180431100081</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>Hariesandi Rizkiyan</v>
+        <f>PROPER(F76)</f>
+        <v>R. Adam Yulianto Siliwangi</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
@@ -2820,62 +2996,62 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>180431100081</v>
+        <v>180431100083</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>R. Adam Yulianto Siliwangi</v>
+        <f>PROPER(F77)</f>
+        <v>Burhanuddin</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>180431100083</v>
+        <v>180431100084</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>Burhanuddin</v>
+        <f>PROPER(F78)</f>
+        <v>Alrizqi Fauzan</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>180431100084</v>
+        <v>180431100085</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>Alrizqi Fauzan</v>
+        <f>PROPER(F79)</f>
+        <v>Kemas Dwiky Ariyanto</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F78" t="s">
         <v>24</v>
@@ -2883,62 +3059,62 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>180431100085</v>
+        <v>180431100086</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>Kemas Dwiky Ariyanto</v>
+        <f>PROPER(F80)</f>
+        <v>Ahmad Lailil Qomariy</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>180431100086</v>
+        <v>180431100087</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>Ahmad Lailil Qomariy</v>
+        <f>PROPER(F81)</f>
+        <v>Mochammad Faiqur Rutab</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>180431100087</v>
+        <v>180431100088</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>Mochammad Faiqur Rutab</v>
+        <f>PROPER(F82)</f>
+        <v>Raifanda Alfari</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -2946,41 +3122,41 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>180431100088</v>
+        <v>180431100089</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>Raifanda Alfari</v>
+        <f>PROPER(F83)</f>
+        <v>Shudaesy Daniel Islamie</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>180431100089</v>
+        <v>180431100090</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>Shudaesy Daniel Islamie</v>
+        <f>PROPER(F84)</f>
+        <v>Cahya Salman Farisi</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -2988,62 +3164,62 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>180431100090</v>
+        <v>180431100091</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>Cahya Salman Farisi</v>
+        <f>PROPER(F85)</f>
+        <v>Suridah</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>180431100091</v>
+        <v>180431100092</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>Suridah</v>
+        <f>PROPER(F86)</f>
+        <v>Hizqil Wildan</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>180431100092</v>
+        <v>180431100094</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>Hizqil Wildan</v>
+        <f>PROPER(F87)</f>
+        <v>Johansyah Irnawan</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -3051,41 +3227,41 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>180431100094</v>
+        <v>180431100096</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>Johansyah Irnawan</v>
+        <f>PROPER(F88)</f>
+        <v>Alfian Sahril Rachmanto</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>180431100096</v>
+        <v>180431100097</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>Alfian Sahril Rachmanto</v>
+        <f>PROPER(F89)</f>
+        <v>Muhammad Afif Alfian</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
@@ -3093,41 +3269,41 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>180431100097</v>
+        <v>180431100098</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>Muhammad Afif Alfian</v>
+        <f>PROPER(F90)</f>
+        <v>Arief Wahyuddin</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>180431100098</v>
+        <v>180431100099</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>Arief Wahyuddin</v>
+        <f>PROPER(F91)</f>
+        <v>Sultoni Al Farizi</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -3135,62 +3311,62 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>180431100099</v>
+        <v>180431100100</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>Sultoni Al Farizi</v>
+        <f>PROPER(F92)</f>
+        <v>Imam Syafi'E</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>180431100100</v>
+        <v>180431100102</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>Imam Syafi'E</v>
+        <f>PROPER(F93)</f>
+        <v>Philipus Tedy Lukmantoro</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>180431100102</v>
+        <v>180431100103</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>Philipus Tedy Lukmantoro</v>
+        <f>PROPER(F94)</f>
+        <v>Gege Maulid Dewanata</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
@@ -3198,166 +3374,153 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>180431100103</v>
+        <v>180431100104</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>Gege Maulid Dewanata</v>
+        <f>PROPER(F95)</f>
+        <v>Muhammad Aminullah</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>180431100104</v>
+        <v>180431100105</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>Muhammad Aminullah</v>
+        <f>PROPER(F96)</f>
+        <v>Ahmad Handika Nadyawan</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>180431100105</v>
+        <v>180431100106</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>Ahmad Handika Nadyawan</v>
+        <f>PROPER(F97)</f>
+        <v>Salsabilah</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>180431100106</v>
+        <v>180431100107</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>Salsabilah</v>
+        <f>PROPER(F98)</f>
+        <v>Muhammad Afifuzzaki Yoga Alif</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>180431100107</v>
+        <v>180431100108</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>Muhammad Afifuzzaki Yoga Alif</v>
+        <f>PROPER(F99)</f>
+        <v>Maskur</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>180431100108</v>
+        <v>180431100109</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v>Maskur</v>
+        <f>PROPER(F100)</f>
+        <v>Dheavisca Nilla N.A</v>
       </c>
       <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" t="s">
         <v>144</v>
       </c>
-      <c r="D99" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" t="s">
-        <v>205</v>
-      </c>
-      <c r="F99" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="2">
-        <v>180431100109</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v>Dheavisca Nilla N.A</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
+      <c r="A100" s="28">
+        <v>160431100002</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="33">
-        <v>160431100002</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>205</v>
+      <c r="E101" s="17" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3382,8 +3545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA4CA4-1EDA-47F5-BAF1-3B406833A066}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3394,528 +3557,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="36">
+        <v>180431100007</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="36">
+        <v>180431100027</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="36">
+        <v>180431100057</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36">
+        <v>180431100075</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="38">
+        <v>180431100104</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="42">
+        <v>170431100010</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="45">
+        <v>180431100012</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="45">
+        <v>180431100032</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="45">
+        <v>180431100066</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="45">
+        <v>180431100083</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="46">
+        <v>180431100105</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="50">
+        <v>180431100015</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5">
-        <v>180431100007</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="50">
+        <v>180431100045</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
-        <v>180431100027</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="50">
+        <v>180431100067</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
-        <v>180431100057</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="50">
+        <v>180431100088</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
-        <v>180431100075</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="51">
+        <v>180431100106</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
-        <v>180431100104</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="34">
-        <v>170431100010</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="53">
+        <v>160431100012</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D20" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>180431100012</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55">
+        <v>180431100017</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>180431100032</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="55">
+        <v>180431100048</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>180431100066</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="55">
+        <v>180431100070</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
-        <v>180431100083</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="55">
+        <v>180431100090</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
-        <v>180431100105</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="56">
+        <v>180431100108</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="58">
+        <v>170431100102</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="60">
+        <v>180431100020</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="60">
+        <v>180431100050</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="60">
+        <v>180431100071</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="60">
+        <v>180431100091</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="63">
+        <v>160431100002</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>180431100015</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>180431100045</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>180431100067</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7">
-        <v>180431100088</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>180431100106</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="66">
+        <v>180431100022</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9">
-        <v>180431100017</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="66">
+        <v>180431100052</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9">
-        <v>180431100048</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="66">
+        <v>180431100073</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9">
-        <v>180431100070</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="67">
+        <v>180431100097</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="9">
-        <v>180431100090</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9">
-        <v>180431100108</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="11">
-        <v>170431100102</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="11">
-        <v>180431100020</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="11">
-        <v>180431100050</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="11">
-        <v>180431100071</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="11">
-        <v>180431100091</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="C31" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="D32" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13">
-        <v>180431100022</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="13">
-        <v>180431100052</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13">
-        <v>180431100073</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13">
-        <v>180431100097</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="41"/>
     </row>
   </sheetData>
@@ -3939,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE9CBC-E754-4446-BB06-085F26701A18}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3951,550 +4131,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="78">
+        <v>180431100021</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="93">
+        <v>180431100014</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="93">
+        <v>180431100028</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="93">
+        <v>180431100044</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="93">
+        <v>180431100063</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="93">
+        <v>180431100086</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="85">
+        <v>180431100005</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="88">
+        <v>180431100018</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="88">
+        <v>180431100029</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="88">
+        <v>180431100047</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="88">
+        <v>180431100074</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="94">
+        <v>180431100094</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="55">
+        <v>180431100008</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="20">
-        <v>180431100021</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="55">
+        <v>180431100019</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="22">
-        <v>180431100014</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="55">
+        <v>180431100030</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="22">
-        <v>180431100028</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="55">
+        <v>180431100055</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="22">
-        <v>180431100044</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="55">
+        <v>180431100076</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="22">
-        <v>180431100063</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="55">
+        <v>180431100099</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="22">
-        <v>180431100086</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16">
-        <v>180431100005</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="78">
+        <v>180431100009</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D20" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16">
-        <v>180431100018</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="81">
+        <v>170431100045</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16">
-        <v>180431100029</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="81">
+        <v>180431100035</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16">
-        <v>180431100047</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="81">
+        <v>180431100058</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16">
-        <v>180431100074</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="81">
+        <v>180431100089</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16">
-        <v>180431100094</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="89">
+        <v>180431100103</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>180431100008</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="36" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="70">
+        <v>180431100011</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="73">
+        <v>180431100023</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="73">
+        <v>180431100037</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="73">
+        <v>180431100059</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="73">
+        <v>180431100085</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="82">
+        <v>180431100107</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="74">
+        <v>180431100013</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9">
-        <v>180431100019</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9">
-        <v>180431100030</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="9">
-        <v>180431100055</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9">
-        <v>180431100076</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="9">
-        <v>180431100099</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="20">
-        <v>180431100009</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="74">
+        <v>180431100024</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="20">
-        <v>170431100045</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="37" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="74">
+        <v>180431100040</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="20">
-        <v>180431100035</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="37" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="74">
+        <v>180431100060</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="20">
-        <v>180431100058</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="37" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="75">
+        <v>180431100061</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="20">
-        <v>180431100081</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="20">
-        <v>180431100103</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="24">
-        <v>180431100011</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="24">
-        <v>180431100023</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="24">
-        <v>180431100037</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="24">
-        <v>180431100059</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="24">
-        <v>180431100085</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="26">
-        <v>180431100107</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="26">
-        <v>180431100013</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26">
-        <v>180431100024</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="26">
-        <v>180431100040</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="26">
-        <v>180431100060</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="41"/>
     </row>
   </sheetData>
@@ -4511,15 +4700,16 @@
     <mergeCell ref="D26:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C8574-6F63-4E5E-BE85-90A9991D66EE}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4530,557 +4720,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="66">
+        <v>180431100016</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="66">
+        <v>180431100042</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="66">
+        <v>180431100054</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="66">
+        <v>180431100072</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="66">
+        <v>180431100096</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="53">
+        <v>180431100006</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="55">
+        <v>180431100026</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="55">
+        <v>180431100043</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="55">
+        <v>180431100056</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="55">
+        <v>180431100077</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="56">
+        <v>180431100098</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="32">
+        <v>180431100001</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="13">
-        <v>150431100072</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36">
+        <v>180431100031</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="13">
-        <v>180431100016</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="36">
+        <v>180431100046</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="13">
-        <v>180431100042</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36">
+        <v>180431100084</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="13">
-        <v>180431100054</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36">
+        <v>180431100100</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="13">
-        <v>180431100072</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="13">
-        <v>180431100096</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9">
-        <v>180431100006</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="98">
+        <v>180431100002</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D20" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9">
-        <v>180431100026</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="97">
+        <v>180431100036</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9">
-        <v>180431100043</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="97">
+        <v>180431100049</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9">
-        <v>180431100056</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="97">
+        <v>180431100062</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9">
-        <v>180431100077</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="97">
+        <v>180431100087</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9">
-        <v>180431100098</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="97">
+        <v>180431100102</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
-        <v>180431100001</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="78">
+        <v>180431100003</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="81">
+        <v>180431100038</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="81">
+        <v>180431100051</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="81">
+        <v>180431100065</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="81">
+        <v>180431100081</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="37"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="89">
+        <v>180431100109</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="93">
+        <v>180431100010</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5">
-        <v>180431100031</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5">
-        <v>180431100046</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5">
-        <v>180431100061</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5">
-        <v>180431100084</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5">
-        <v>180431100100</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18">
-        <v>180431100002</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="93">
+        <v>180431100041</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18">
-        <v>180431100036</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="93">
+        <v>180431100053</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18">
-        <v>180431100049</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="93">
+        <v>180431100068</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="18">
-        <v>180431100062</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="100">
+        <v>180431100092</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18">
-        <v>180431100087</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18">
-        <v>180431100102</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="20">
-        <v>180431100003</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="20">
-        <v>180431100038</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="20">
-        <v>180431100051</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="20">
-        <v>180431100065</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="20">
-        <v>180431100089</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="20">
-        <v>180431100109</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="22">
-        <v>180431100010</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="22">
-        <v>180431100041</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22">
-        <v>180431100053</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="22">
-        <v>180431100068</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="22">
-        <v>180431100092</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="41"/>
     </row>
   </sheetData>
